--- a/4 - Software/Pyren/PyRen PID Export.xlsx
+++ b/4 - Software/Pyren/PyRen PID Export.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="152" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605484BE-70CA-4220-9AEE-1A35ADB389FA}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E09244E6-289C-4256-B41D-B33B95BBD39F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11051 - AIRBAG" sheetId="12" r:id="rId1"/>
@@ -5298,12 +5298,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5318,7 +5324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5328,6 +5334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10111,8 +10118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3BC21C-A0EC-4972-BFBE-1D78E0F36565}">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13724,8 +13731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50A233C-D945-491B-9351-6691C2B60EFB}">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20280,7 +20287,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24014,7 +24021,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25095,7 +25102,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25906,8 +25913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC940435-E7ED-4DBD-AD93-D98E06BBBCE4}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26851,28 +26858,28 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>70</v>
       </c>
     </row>
